--- a/7_others/gantt.xlsx
+++ b/7_others/gantt.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kane/Google Drive/Code/vega_lite/7_others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E0ED8FF-AE63-5E42-A45D-CB8A4F2E4DAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7C7DEF15-E0E1-9A4A-BF4E-0761C19DA4DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15580" xr2:uid="{DA102B47-705E-A84D-AC28-B62AA2907B9B}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15580" activeTab="5" xr2:uid="{DA102B47-705E-A84D-AC28-B62AA2907B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="gantt" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="time" sheetId="3" r:id="rId2"/>
+    <sheet name="time_system" sheetId="5" r:id="rId3"/>
+    <sheet name="order" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">order!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet2!$C$1:$E$15</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
   <si>
     <t>Inter_arrival times</t>
   </si>
@@ -49,14 +57,40 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Depature Time</t>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>System State 
+before the event</t>
+  </si>
+  <si>
+    <t>System State 
+after the event</t>
+  </si>
+  <si>
+    <t>Event Number</t>
+  </si>
+  <si>
+    <t>System state</t>
+  </si>
+  <si>
+    <t>Departure Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +134,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -117,29 +181,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6460292B-D62D-A844-A413-28C1E38AA4CB}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,154 +632,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
         <v>0.18099999999999999</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="12">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.126</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D3" s="10">
         <f>SUM(B2:B2)</f>
         <v>0.18099999999999999</v>
       </c>
-      <c r="E2" s="5">
-        <f>D2+C2</f>
-        <v>0.48399999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.126</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="E3" s="10">
+        <f>D3+C3</f>
+        <v>2.7309999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.442</v>
+      </c>
+      <c r="D4" s="10">
         <f>SUM(B2:B3)</f>
         <v>0.307</v>
       </c>
-      <c r="E3" s="5">
-        <f>D3+C3</f>
-        <v>2.8569999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E8" si="0">D4+C4</f>
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.442</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B5" s="12">
+        <v>2.7269999999999999</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1.091</v>
+      </c>
+      <c r="D5" s="10">
         <f>SUM(B2:B4)</f>
         <v>0.48199999999999998</v>
       </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E8" si="0">D4+C4</f>
-        <v>0.92399999999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2.7269999999999999</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.091</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>1.573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D6" s="10">
         <f>SUM(B2:B5)</f>
         <v>3.2089999999999996</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+        <v>3.5329999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.39</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B7" s="12">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.104</v>
+      </c>
+      <c r="D7" s="10">
         <f>SUM(B2:B6)</f>
         <v>3.5989999999999998</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>3.9229999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+        <v>3.7029999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.104</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B8" s="12">
+        <v>0.113</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1.516</v>
+      </c>
+      <c r="D8" s="10">
         <f>SUM(B2:B7)</f>
         <v>4.2439999999999998</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>4.3479999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.113</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.516</v>
-      </c>
-      <c r="D8" s="5">
-        <f>SUM(B2:B8)</f>
-        <v>4.3570000000000002</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>5.8730000000000002</v>
-      </c>
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -626,13 +788,943 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4544A2F-9ED1-B248-989D-523BE038912F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFCBF84-3FD1-224E-A053-C32A8F0727EA}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2.7309999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.307</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3.2089999999999996</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3.5329999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3.5989999999999998</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3.7029999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4.2439999999999998</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332E3793-3F6D-FB4F-A413-2FDC5379F63C}">
+  <dimension ref="B1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="B1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="10">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="10">
+        <v>0.307</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="10">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="10">
+        <v>3.2089999999999996</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="10">
+        <v>3.5989999999999998</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="10">
+        <v>4.2439999999999998</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="10">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="10">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="10">
+        <v>0.749</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="10">
+        <v>1.573</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="10">
+        <v>3.5329999999999995</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="10">
+        <v>3.7029999999999998</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="10">
+        <v>5.76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480B4284-871B-2B4D-B9EC-C4E393B3944E}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>0.307</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>0.749</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>1.573</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>3.5329999999999999</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>3.7029999999999998</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>4.2439999999999998</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>5.76</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="18">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4544A2F-9ED1-B248-989D-523BE038912F}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <f>B2+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <f>F2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <f t="shared" ref="B4:B15" si="0">F3</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <f>B4+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.307</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="18">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.749</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1.573</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="18">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="19">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="18">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>3.5329999999999999</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="18">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="18">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="19">
+        <v>3.7029999999999998</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="18">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="19">
+        <v>4.2439999999999998</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="18">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15" s="19">
+        <v>5.76</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="18">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1A89FB-4729-9B45-9748-5183F0DABC3A}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="21">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>0.307</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
+        <v>0.749</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>1.573</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>3.5329999999999999</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
+        <v>3.7029999999999998</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <v>4.2439999999999998</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
+        <v>5.76</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7_others/gantt.xlsx
+++ b/7_others/gantt.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kane/Google Drive/Code/vega_lite/7_others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7C7DEF15-E0E1-9A4A-BF4E-0761C19DA4DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9DB7D709-8EB3-4B4A-BE73-829FE84FDCD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15580" activeTab="5" xr2:uid="{DA102B47-705E-A84D-AC28-B62AA2907B9B}"/>
+    <workbookView xWindow="780" yWindow="560" windowWidth="27640" windowHeight="15580" activeTab="5" xr2:uid="{DA102B47-705E-A84D-AC28-B62AA2907B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="gantt" sheetId="1" r:id="rId1"/>
     <sheet name="time" sheetId="3" r:id="rId2"/>
     <sheet name="time_system" sheetId="5" r:id="rId3"/>
     <sheet name="order" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="final" sheetId="2" r:id="rId5"/>
+    <sheet name="state" sheetId="4" r:id="rId6"/>
+    <sheet name="textbook" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">final!$C$1:$E$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">order!$A$1:$C$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet2!$C$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>Inter_arrival times</t>
   </si>
@@ -84,6 +85,18 @@
   </si>
   <si>
     <t>Departure Time</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
 </sst>
 </file>
@@ -616,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6460292B-D62D-A844-A413-28C1E38AA4CB}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:E8"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,6 +795,153 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="2"/>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>0</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.126</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D16" s="10">
+        <f>SUM(B15:B15)</f>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2.8530000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>2</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.442</v>
+      </c>
+      <c r="D17" s="10">
+        <f>SUM(B15:B16)</f>
+        <v>0.307</v>
+      </c>
+      <c r="E17" s="10">
+        <f>E16+C17</f>
+        <v>3.2950000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>3</v>
+      </c>
+      <c r="B18" s="12">
+        <v>2.7269999999999999</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1.091</v>
+      </c>
+      <c r="D18" s="10">
+        <f>SUM(B15:B17)</f>
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E18" s="10">
+        <f>E17+C18</f>
+        <v>4.3860000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D19" s="10">
+        <f>SUM(B15:B18)</f>
+        <v>3.2089999999999996</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" ref="E19:E21" si="1">E18+C19</f>
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>5</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.104</v>
+      </c>
+      <c r="D20" s="10">
+        <f>SUM(B15:B19)</f>
+        <v>3.5989999999999998</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>4.8140000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>6</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0.113</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1.516</v>
+      </c>
+      <c r="D21" s="10">
+        <f>SUM(B15:B20)</f>
+        <v>4.2439999999999998</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="1"/>
+        <v>6.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -792,7 +952,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:C8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,7 +1058,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="B1:D15"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,7 +1470,6 @@
         <v>0</v>
       </c>
       <c r="F2" s="7">
-        <f>B2+1</f>
         <v>1</v>
       </c>
     </row>
@@ -1332,7 +1491,6 @@
         <v>1</v>
       </c>
       <c r="F3" s="7">
-        <f>B3+1</f>
         <v>2</v>
       </c>
     </row>
@@ -1354,8 +1512,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <f>B4+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1364,7 +1521,7 @@
       </c>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="19">
         <v>0.307</v>
@@ -1397,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1406,7 +1563,7 @@
       </c>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="19">
         <v>0.749</v>
@@ -1418,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1427,7 +1584,7 @@
       </c>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="19">
         <v>1.573</v>
@@ -1460,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1469,7 +1626,7 @@
       </c>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="19">
         <v>3.2090000000000001</v>
@@ -1502,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1511,7 +1668,7 @@
       </c>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="19">
         <v>3.5990000000000002</v>
@@ -1599,7 +1756,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1616,7 +1773,7 @@
       <c r="A2" s="20">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1624,7 +1781,7 @@
       <c r="A3" s="21">
         <v>0.18099999999999999</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1632,15 +1789,15 @@
       <c r="A4" s="21">
         <v>0.30299999999999999</v>
       </c>
-      <c r="B4" s="9">
-        <v>3</v>
+      <c r="B4" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>0.307</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
     </row>
@@ -1648,23 +1805,23 @@
       <c r="A6" s="21">
         <v>0.48199999999999998</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
+      <c r="B6" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>0.749</v>
       </c>
-      <c r="B7" s="9">
-        <v>0</v>
+      <c r="B7" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>1.573</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1672,15 +1829,15 @@
       <c r="A9" s="21">
         <v>2.7309999999999999</v>
       </c>
-      <c r="B9" s="9">
-        <v>2</v>
+      <c r="B9" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>3.2090000000000001</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1688,15 +1845,15 @@
       <c r="A11" s="21">
         <v>3.5329999999999999</v>
       </c>
-      <c r="B11" s="9">
-        <v>2</v>
+      <c r="B11" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>3.5990000000000002</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1704,7 +1861,7 @@
       <c r="A13" s="21">
         <v>3.7029999999999998</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1712,7 +1869,7 @@
       <c r="A14" s="21">
         <v>4.2439999999999998</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1720,8 +1877,81 @@
       <c r="A15" s="21">
         <v>5.76</v>
       </c>
-      <c r="B15" s="9">
-        <v>0</v>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC8AFEF-611C-D84A-BF04-A3805FD271C9}">
+  <dimension ref="C2:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>0.307</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
